--- a/biology/Biochimie/Hector_DeLuca/Hector_DeLuca.xlsx
+++ b/biology/Biochimie/Hector_DeLuca/Hector_DeLuca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hector F. DeLuca, né à Pueblo, Colorado en 1930, est professeur émérite à l'Université du Wisconsin à Madison et ancien président du département de biochimie de l'université[1]. DeLuca est connu pour ses recherches sur la vitamine D, dont sont dérivés plusieurs médicaments pharmaceutiques[2],[3]. Il est élu à l'Académie nationale des sciences des États-Unis en 1979[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hector F. DeLuca, né à Pueblo, Colorado en 1930, est professeur émérite à l'Université du Wisconsin à Madison et ancien président du département de biochimie de l'université. DeLuca est connu pour ses recherches sur la vitamine D, dont sont dérivés plusieurs médicaments pharmaceutiques,. Il est élu à l'Académie nationale des sciences des États-Unis en 1979.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DeLuca forme près de 160 étudiants diplômés et détient plus de 150 brevets à son nom. La licence de sa technologie, par l'intermédiaire de la Wisconsin Alumni Research Foundation, a généré des dizaines de millions de dollars de revenus pour l'université[5].
-En outre, DeLuca est président de Deltanoid Pharmaceuticals, une société de biotechnologie fondée sur la technologie qu'il a développée[6].
-Il reçoit la médaille Bolton S. Corson du Franklin Institute en 1985. Trois bâtiments sur le campus du Wisconsin, dont le DeLuca Biochemistry Building[7] sont nommés en son honneur en 2014[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DeLuca forme près de 160 étudiants diplômés et détient plus de 150 brevets à son nom. La licence de sa technologie, par l'intermédiaire de la Wisconsin Alumni Research Foundation, a généré des dizaines de millions de dollars de revenus pour l'université.
+En outre, DeLuca est président de Deltanoid Pharmaceuticals, une société de biotechnologie fondée sur la technologie qu'il a développée.
+Il reçoit la médaille Bolton S. Corson du Franklin Institute en 1985. Trois bâtiments sur le campus du Wisconsin, dont le DeLuca Biochemistry Building sont nommés en son honneur en 2014.
 </t>
         </is>
       </c>
